--- a/data/trans_bre/P20_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_1_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>30,76%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 13,24</t>
+          <t>-2,99; 13,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 9,11</t>
+          <t>-4,14; 9,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 101,42</t>
+          <t>-15,53; 107,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,51; 136,7</t>
+          <t>-33,87; 167,31</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 7,77</t>
+          <t>-8,81; 7,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 9,14</t>
+          <t>-12,94; 8,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 102,72</t>
+          <t>-48,4; 93,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,65; 101,04</t>
+          <t>-55,07; 89,38</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>114,76%</t>
+          <t>124,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>26,55%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 15,2</t>
+          <t>4,11; 15,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 6,3</t>
+          <t>-3,01; 8,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,91; 260,29</t>
+          <t>37,14; 275,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-53,31; 63,52</t>
+          <t>-21,78; 103,22</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 5,23</t>
+          <t>-3,59; 5,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 6,1</t>
+          <t>-5,6; 5,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 70,55</t>
+          <t>-31,17; 74,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 64,11</t>
+          <t>-36,58; 58,11</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>66,37%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>26,97%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 8,44</t>
+          <t>-1,52; 7,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 8,75</t>
+          <t>-3,14; 7,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 375,96</t>
+          <t>-41,11; 378,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 183,35</t>
+          <t>-33,6; 153,44</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-40,35%</t>
+          <t>-44,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-31,51%</t>
+          <t>-44,29%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 1,37</t>
+          <t>-11,64; 0,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 3,36</t>
+          <t>-11,6; 2,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,1; 31,69</t>
+          <t>-82,75; 19,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,39; 45,88</t>
+          <t>-77,55; 34,67</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,19</t>
+          <t>-0,62; 4,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 2,96</t>
+          <t>-2,56; 3,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 59,73</t>
+          <t>-5,94; 54,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 28,07</t>
+          <t>-19,85; 34,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_1_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>29,98%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>30,76%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.070062970065536</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.245340341157449</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.2958499969376736</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.02149987888604973</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; 13,62</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,14; 9,76</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,53; 107,59</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-33,87; 167,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.435413188438653</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.459027406207174</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.1685634738696565</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.5204630820842585</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.04872628848659</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.394580929601799</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.9853375960023685</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.070975038086036</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,81; 7,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,94; 8,26</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-48,4; 93,95</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-55,07; 89,38</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1972233238178883</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7880925449946535</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01520366539939594</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.05582209612313715</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,66</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>124,32%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>26,55%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.940177673284703</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.30951542206011</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.5151851981815746</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.5460436512375749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>4,11; 15,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; 8,39</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>37,14; 275,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-21,78; 103,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.366183707859489</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.377907553922723</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.8440952745649704</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.8668130072536095</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>9.579513176041059</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.714411759427116</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>1.147837128672004</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.2301441314615928</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,59; 5,18</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,6; 5,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-31,17; 74,38</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-36,58; 58,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3.627701708468649</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.384874822700096</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.2911405085572639</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2400781530523259</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.25752195809883</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.344889360383126</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>2.450829084682285</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.110897043356478</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>58,86%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>26,97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 7,8</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 7,25</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-41,11; 378,39</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-33,6; 153,44</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.7214597288605615</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.8497597107951643</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.07291555564757764</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.06669130253413097</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-3,28</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-5,18</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-44,73%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-44,29%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.519022066315282</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.263496126144438</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.345486710893634</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3358465125637136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-11,64; 0,68</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-11,6; 2,03</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-82,75; 19,96</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-77,55; 34,67</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.410742324497438</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.567926304160022</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.7161284696614798</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6486101614678966</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>23,47%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,25%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.558937489638972</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.454288158167399</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.6636035128591172</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.3236725704481595</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 4,45</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 3,23</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,94; 54,09</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-19,85; 34,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.623511665457054</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.465784075493147</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.436935982983956</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.2817363766458585</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.565722255910693</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.225594400817313</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>3.729722071630024</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1.774757742133875</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-3.428153260473162</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-4.620700154355848</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.4027415673013001</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.3883461769934065</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-12.50145503018036</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-11.34891572222817</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.8155755992272051</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.733327482269164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>1.543874257530029</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>2.255445755567223</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.3556541208628474</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.4183257363590728</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.409297384099192</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2989112947751019</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.2378671676607504</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.02547278557286872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.1526809376394998</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.851256249129711</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.01684180295891327</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.2121446437947166</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.871872089800464</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.953307237905078</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.5575277309556005</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.2996425458769602</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
